--- a/choice-database/Litigation/Litigation.xlsx
+++ b/choice-database/Litigation/Litigation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>Case</t>
   </si>
@@ -172,6 +172,18 @@
     <t>Fraud; replevin; permanent injunction; breach of contract; breach of fiduciary duty; violation of the EFTA and Regulation E; NY GBL § 349; aiding and abetting</t>
   </si>
   <si>
+    <t>Mislav Basic, et al. v. BProtocol Foundation, et al.</t>
+  </si>
+  <si>
+    <t>W.D. Tex.</t>
+  </si>
+  <si>
+    <t>Customers have initiated a class action lawsuit against the operator and officers of the cryptocurrency exchange Bancor. The lawsuit alleges that Bancor falsely advertised complete protection against the risk of loss when customers transfer custody and control of crypto assets to Bancor.</t>
+  </si>
+  <si>
+    <t>Securities Act §§ 5, 12(a)(1), 15</t>
+  </si>
+  <si>
     <t>Michael Massel v. Coinbase, Inc. and DOES 1 through 10</t>
   </si>
   <si>
@@ -200,6 +212,174 @@
   </si>
   <si>
     <t>Florida Securities and Investor Protection Act; Florida Deceptive and Unfair Trade Practices Act; California Corporation Code; Unfair Competition Law Business &amp; Professions Code § 17200, et seq.; civil conspiracy</t>
+  </si>
+  <si>
+    <t>All In Bits, Inc. v. Grace Yu</t>
+  </si>
+  <si>
+    <t>All In Bits, the company responsible for blockchain consensus technology Tendermint, has initiated legal action against a former consultant. The lawsuit alleges that the consultant violated the non-disparagement clause outlined in her consulting agreement.</t>
+  </si>
+  <si>
+    <t>Breach of contract</t>
+  </si>
+  <si>
+    <t>Edwin Garrison v. Kevin Paffrath, et al.</t>
+  </si>
+  <si>
+    <t>The plaintiffs have filed a putative class action lawsuit representing all FTX consumers. The lawsuit targets several influencers who allegedly promoted, assisted in, and/or actively participated in FTX's purported offer and sale of unregistered securities.</t>
+  </si>
+  <si>
+    <t>Florida Securities and Investor Protection Act; Florida Deceptive and Unfair Trade Practices Act; Civil conspiracy; Declaratory judgment</t>
+  </si>
+  <si>
+    <t>Justin Dufoe v. DraftKings Inc., et al.</t>
+  </si>
+  <si>
+    <t>D. Mass.</t>
+  </si>
+  <si>
+    <t>The plaintiff has filed a putative class action lawsuit on behalf of purchasers of DraftKings’ NFTs. The lawsuit alleges that the NFTs are considered unregistered securities and accuses the defendants of operating an unregistered securities exchange.</t>
+  </si>
+  <si>
+    <t>Securities Act §§ 5, 12(a)(1), 15; Exchange Act §§ 5, 15(a)(1), 20, 29(b); Unregistered broker and dealer; Sale of unregistered securities</t>
+  </si>
+  <si>
+    <t>Ryan Breslow, et al. v. Mark Phillips and Benjamin Reed</t>
+  </si>
+  <si>
+    <t>The plaintiffs, investors in Movement DAO, allege that the DAO failed to launch due to the defendants’ actions. The plaintiffs obtained a Temporary Restraining Order that prohibits the defendants from transferring any assets from the DAO’s wallets.</t>
+  </si>
+  <si>
+    <t>Breach of fiduciary duty; fraud; civil conspiracy</t>
+  </si>
+  <si>
+    <t>Nanolabs, Inc. v. Coinbase Global, Inc.</t>
+  </si>
+  <si>
+    <t>NanoLabs has filed a trademark infringement lawsuit against Coinbase, claiming that Coinbase's Nano Bitcoin futures contract and Nano Ether futures contract products violate NanoLabs' trademark rights.</t>
+  </si>
+  <si>
+    <t>Federal trademark infringement; False designation of origin; California common law trademark infringement; Unfair business practices; Interference with prospective economic relations</t>
+  </si>
+  <si>
+    <t>Theodore Rider, et al., v. Uphold HQ Inc., et al.</t>
+  </si>
+  <si>
+    <t>Customers initiated a putative class action against the operator and CEO of a cryptocurrency exchange, alleging that their accounts were compromised due to the defendants’ negligence in implementing two-factor authorization. The Court ruled that cryptocurrencies qualify as "funds" under the Electronic Fund Transfer Act, permitting the plaintiffs to proceed with their claims on that basis.</t>
+  </si>
+  <si>
+    <t>Electronic Fund Transfer Act; deceptive business practices; breach of contract; breach of express and implied warranties; negligence; gross negligence; unjust enrichment; negligence per se; negligent misrepresentation</t>
+  </si>
+  <si>
+    <t>Connor O’Keefe v. Sequoia Capital Operations, LLC, et al.</t>
+  </si>
+  <si>
+    <t>The plaintiff claims that a group of defendants, including banks, venture capital firms, law firms, and accounting firms, knowingly and significantly aided Sam Bankman-Fried in committing fraud through FTX. This case has been transferred to the multi-district litigation titled In re FTX Cryptocurrency Exchange Collapse Litigation, 1:23-cv-03076 (S.D. Fla.).</t>
+  </si>
+  <si>
+    <t>Civil conspiracy; common law aiding and abetting fraud; common law aiding and abetting fiduciary breach; aiding and abetting conversion</t>
+  </si>
+  <si>
+    <t>Don Holland v. CryptoZoo Inc., et al.</t>
+  </si>
+  <si>
+    <t>An investor in CryptoZoo Inc., a cryptocurrency-based gaming project associated with Youtube star Logan Paul, has alleged that Paul and his team conducted a rug pull. The investor claims that after purchasing digital assets purportedly necessary to play the game, Paul and his team failed to deliver the final project.</t>
+  </si>
+  <si>
+    <t>Fraud; express breach of contract; implied breach of contract; unjust enrichment; violation of Texas’s Deceptive Trade Practices Act; negligence; fraudulent misrepresentation; conspiracy to commit fraud</t>
+  </si>
+  <si>
+    <t>Aaron Murphy v. Argo Blockchain PLC, et al.</t>
+  </si>
+  <si>
+    <t>The plaintiff has filed a putative class action lawsuit on behalf of investors who invested in Argo Blockchain PLC immediately following its initial public offering. The lawsuit alleges that investors were misled about Argo's business prospects due to negligently prepared offering documents and misleading statements.</t>
+  </si>
+  <si>
+    <t>Exchange Act §§ 10(b) and Rule 10b-5, 20(a); Securities Act §§ 11, 15</t>
+  </si>
+  <si>
+    <t>Mango Labs, LLC v. Avraham Eisenberg</t>
+  </si>
+  <si>
+    <t>Mango Labs has initiated legal action against Eisenberg, accusing him of manipulating the value of the Mango token and transferring around $114 million from Mango Markets depositors into his personal accounts.</t>
+  </si>
+  <si>
+    <t>Conversion; fraudulent misrepresentation; unjust enrichment; declaratory judgment</t>
+  </si>
+  <si>
+    <t>Julie Chon Papadakis v. Samuel Bankman-Fried, et al.</t>
+  </si>
+  <si>
+    <t>The plaintiff has filed a putative class action lawsuit on behalf of customers who deposited funds into FTX or FTX.US, seeking damages due to their inability to withdraw the deposited funds.</t>
+  </si>
+  <si>
+    <t>Cal. Bus. &amp; Prof. Code §§ 17200, 17500; fraudulent concealment; negligent misrepresentation; intentional misrepresentation; fraud; breach of fiduciary duty; aiding and abetting fraud; aiding and abetting violations of Cal. Bus. &amp; Prof. Code §§ 17200; aiding and abetting breaches of fiduciary duty; civil conspiracy; conversion; unjust enrichment; declaratory judgment</t>
+  </si>
+  <si>
+    <t>Joewy Gonzalez v. Silvergate Bank, et al.</t>
+  </si>
+  <si>
+    <t>S.D. Cal.</t>
+  </si>
+  <si>
+    <t>The plaintiff has filed a putative class action lawsuit against Silvergate Bank, alleging that in managing accounts for FTX and Alameda, the bank commingled funds, executed improper transfers, and lent out customer money.</t>
+  </si>
+  <si>
+    <t>Aiding and abetting fraud; aiding and abetting breach of fiduciary duty; unjust enrichment</t>
+  </si>
+  <si>
+    <t>Amanda Houghton, et al. v. Compound DAO, et al.</t>
+  </si>
+  <si>
+    <t>The plaintiffs have brought a putative class action claiming they suffered financial losses from purchasing COMP tokens, which they argue are unregistered securities.</t>
+  </si>
+  <si>
+    <t>Michael Elliott Jessup v. Samuel Bankman-Fried, et al.</t>
+  </si>
+  <si>
+    <t>The plaintiffs have filed a putative class action lawsuit on behalf of FTX customers, alleging that the defendants transferred customers' assets to Alameda Research without authorization.</t>
+  </si>
+  <si>
+    <t>Fraud; unjust enrichment; conversion</t>
+  </si>
+  <si>
+    <t>José Tomās Sepülveda Zuleta v. Silvergate Capital Corp., et al.</t>
+  </si>
+  <si>
+    <t>Plaintiffs bring a putative class action on behalf of FTX investors, alleging that Silvergate Bank allowed FTX to direct customer deposits to Alameda Research, thus implicating the bank in and holding it responsible for losses resulting from FTX’s collapse.</t>
+  </si>
+  <si>
+    <t>Fraud; fraudulent concealment &amp; inducement; civil conspiracy; negligence; Cal. Bus. &amp; Prof. Code § 17200 (unfair competition); quasi-contract/unjust enrichment</t>
+  </si>
+  <si>
+    <t>Matthew Albright v. Terraform Labs, PTE. LTD., et al.</t>
+  </si>
+  <si>
+    <t>The plaintiff, representing a proposed nationwide class of all individuals and entities who purchased Terraform stablecoins, alleges that Terraform Labs and its top executives violated RICO by artificially inflating the price of the stablecoins and disseminating misleading information subsequent to its collapse.</t>
+  </si>
+  <si>
+    <t>Racketeer Influenced and Corrupt Organizations Act (RICO)</t>
+  </si>
+  <si>
+    <t>Christopher Freeman v. Stake.com, et al.</t>
+  </si>
+  <si>
+    <t>The plaintiff alleges that the defendants' crypto-based online casino unlawfully appropriated the plaintiff's online crypto-based dice game.</t>
+  </si>
+  <si>
+    <t>Trade secret misappropriation; fraud; breach of fiduciary duty and duty of loyalty; unfair competition; idea misappropriation; tortious interference with prospective economic advantage; unjust enrichment; conversion; accounting</t>
+  </si>
+  <si>
+    <t>George Kattula v. Coinbase Global, Inc., and Coinbase Inc.</t>
+  </si>
+  <si>
+    <t>N.D. Ga.</t>
+  </si>
+  <si>
+    <t>Plaintiffs have filed a class action lawsuit alleging that Coinbase's security systems exposed their accounts to hackers and that Coinbase arbitrarily locked them out of their accounts, thereby preventing them from selling off tokens.</t>
+  </si>
+  <si>
+    <t>Declaratory judgment; breach of fiduciary duty; breach of contract and implied covenant of good faith and fair dealing; unjust enrichment; deceptive practice; Electronic Funds Transfer Act and Regulation E; negligence</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1200,8 @@
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="7">
-        <v>45047.0</v>
+      <c r="C15" s="4">
+        <v>45057.0</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
@@ -1056,16 +1236,16 @@
         <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
-        <v>45016.0</v>
+        <v>45047.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1091,19 +1271,19 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
         <v>45016.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1128,11 +1308,21 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45016.0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1156,11 +1346,21 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45008.0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1184,11 +1384,21 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45000.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1212,11 +1422,21 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="7">
+        <v>44994.0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1240,11 +1460,21 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44981.0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1268,11 +1498,21 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7">
+        <v>44981.0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -1296,11 +1536,21 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44979.0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -1324,11 +1574,21 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
+        <v>44979.0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1352,11 +1612,21 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44959.0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1380,11 +1650,21 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7">
+        <v>44952.0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1408,11 +1688,21 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="7">
+        <v>44951.0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1436,11 +1726,21 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="A29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="7">
+        <v>44929.0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1464,11 +1764,21 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7">
+        <v>44909.0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1492,11 +1802,21 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="7">
+        <v>44903.0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1520,11 +1840,21 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="7">
+        <v>44900.0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1548,11 +1878,21 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="7">
+        <v>44896.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -1576,11 +1916,21 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7">
+        <v>44798.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -1604,11 +1954,21 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="7">
+        <v>44790.0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1632,11 +1992,21 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="7">
+        <v>44788.0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -28651,6 +29021,34 @@
       <c r="Y1000" s="5"/>
       <c r="Z1000" s="5"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="G1001" s="5"/>
+      <c r="H1001" s="5"/>
+      <c r="I1001" s="5"/>
+      <c r="J1001" s="5"/>
+      <c r="K1001" s="5"/>
+      <c r="L1001" s="5"/>
+      <c r="M1001" s="5"/>
+      <c r="N1001" s="5"/>
+      <c r="O1001" s="5"/>
+      <c r="P1001" s="5"/>
+      <c r="Q1001" s="5"/>
+      <c r="R1001" s="5"/>
+      <c r="S1001" s="5"/>
+      <c r="T1001" s="5"/>
+      <c r="U1001" s="5"/>
+      <c r="V1001" s="5"/>
+      <c r="W1001" s="5"/>
+      <c r="X1001" s="5"/>
+      <c r="Y1001" s="5"/>
+      <c r="Z1001" s="5"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
